--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_39.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3872457.574941612</v>
+        <v>3870122.463739629</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>72.94942429078246</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>63.59441785694172</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>12.45363786244282</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>188.4649415276189</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>380.5872504267233</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>108.0165900216666</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247047</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>13.18609391402018</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,13 +1060,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>171.1971464172153</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>109.3296738389803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>142.3478174606662</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1184,10 +1184,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1291,25 +1291,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>17.1579442152432</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>157.7822070347172</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1528,13 +1528,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>53.07327741456097</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>214.3978296695742</v>
       </c>
     </row>
     <row r="14">
@@ -1771,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>20.88994825141581</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>53.11937003877912</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>194.5707234541129</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2485,16 +2485,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>107.3178054178675</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2719,13 +2719,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>248.3840700603491</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>33.01627976944155</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2956,19 +2956,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.07916359105417</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>110.0177171766856</v>
+        <v>20.43112068613203</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,13 +3430,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>39.52129633183176</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>171.6912157329571</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4135,13 +4135,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4192,7 +4192,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>126.1348013633905</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>797.0848490996759</v>
+        <v>844.329830759459</v>
       </c>
       <c r="C2" t="n">
-        <v>428.1223321592641</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>69.85663355251364</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>69.85663355251364</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>62.91113280331017</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>51.2467865680031</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2498.102542686072</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2498.102542686072</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2244.521481950252</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1913.458594606682</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1560.689939336567</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1187.224181075488</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y2" t="n">
-        <v>797.0848490996759</v>
+        <v>918.0161179218655</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
@@ -4413,13 +4413,13 @@
         <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>932.4978103100998</v>
+        <v>932.4978103100999</v>
       </c>
       <c r="M3" t="n">
         <v>1480.485115687205</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.77024428415</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O3" t="n">
         <v>2199.840679460312</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>346.8756322024072</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="C4" t="n">
-        <v>346.8756322024072</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="D4" t="n">
-        <v>346.8756322024072</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E4" t="n">
-        <v>346.8756322024072</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1623.866687890212</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1400.888207084947</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1111.769869588785</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V4" t="n">
-        <v>857.085381382898</v>
+        <v>859.5709967387894</v>
       </c>
       <c r="W4" t="n">
-        <v>567.6682113459374</v>
+        <v>570.1538267018288</v>
       </c>
       <c r="X4" t="n">
-        <v>567.6682113459374</v>
+        <v>570.1538267018288</v>
       </c>
       <c r="Y4" t="n">
-        <v>346.8756322024072</v>
+        <v>379.7851988961531</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1571.558046306621</v>
+        <v>603.6036480119278</v>
       </c>
       <c r="C5" t="n">
-        <v>1202.59552936621</v>
+        <v>494.4959813233757</v>
       </c>
       <c r="D5" t="n">
-        <v>844.329830759459</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="E5" t="n">
-        <v>844.329830759459</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="F5" t="n">
-        <v>433.3439259698515</v>
+        <v>129.2847819674217</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362819</v>
@@ -4571,10 +4571,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2308.758267664335</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V5" t="n">
-        <v>2308.758267664335</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W5" t="n">
-        <v>1955.989612394221</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="X5" t="n">
-        <v>1955.989612394221</v>
+        <v>1380.342820051861</v>
       </c>
       <c r="Y5" t="n">
-        <v>1955.989612394221</v>
+        <v>990.2034880760496</v>
       </c>
     </row>
     <row r="6">
@@ -4638,10 +4638,10 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
@@ -4656,10 +4656,10 @@
         <v>1081.114527508758</v>
       </c>
       <c r="N6" t="n">
-        <v>1468.399656105703</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
-        <v>1800.470091281865</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
         <v>2239.046898434118</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>833.0891146802707</v>
+        <v>370.2996089082458</v>
       </c>
       <c r="C7" t="n">
-        <v>664.1529317523638</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D7" t="n">
-        <v>514.036292340028</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E7" t="n">
-        <v>366.1231987576349</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020476</v>
@@ -4750,25 +4750,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074497</v>
+        <v>673.036065727045</v>
       </c>
       <c r="W7" t="n">
-        <v>1463.519709552058</v>
+        <v>383.6188956900843</v>
       </c>
       <c r="X7" t="n">
-        <v>1235.53015865404</v>
+        <v>383.6188956900843</v>
       </c>
       <c r="Y7" t="n">
-        <v>1014.73757951051</v>
+        <v>383.6188956900843</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1168.124113652745</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136265</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792694</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.48361052258</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2158.0178522615</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>2158.0178522615</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>181.169050396912</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574644</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1767.918581386758</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>362.8175152271517</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>427.7414352191925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>983.3403484614387</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>983.3403484614387</v>
+        <v>699.7311804011399</v>
       </c>
     </row>
     <row r="14">
@@ -5270,25 +5270,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745238</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.79311422913</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468417</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5476,10 +5476,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,52 +5501,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,22 +5738,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,37 +5762,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>947.7481113147751</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>726.955532171245</v>
       </c>
     </row>
     <row r="23">
@@ -5963,46 +5963,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6072,10 +6072,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>426.0170212122717</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6212,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,25 +6221,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>552.3777707160738</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1182.808365587861</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>954.8188146898436</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>734.0262355463135</v>
       </c>
     </row>
     <row r="29">
@@ -6449,34 +6449,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.672526468518</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282753</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,61 +6686,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,31 +6771,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6911,31 +6911,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6947,40 +6947,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7154,28 +7154,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332386</v>
@@ -7190,10 +7190,10 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,25 +7245,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>473.9330993947871</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7403,28 +7403,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2023.637075050237</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1734.561848394435</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1479.877360188548</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>969.6676110080573</v>
       </c>
     </row>
     <row r="44">
@@ -7652,16 +7652,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7840,16 +7840,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1560.976963588655</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1271.559793551694</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1043.570242653677</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>822.7776635101469</v>
       </c>
     </row>
   </sheetData>
@@ -8061,10 +8061,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621885</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M3" t="n">
-        <v>186.591198401904</v>
+        <v>186.5911984019043</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8304,13 +8304,13 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>193.3273467878344</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>193.3273467878343</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -23416,13 +23416,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>114.1735436840669</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>4.18682368252064</v>
       </c>
     </row>
     <row r="14">
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>93.31459260779005</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>31.13893193492422</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>58.20633287440137</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>38.13892827624193</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>146.8157004124957</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>125.5054897610406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>57.22910392194228</v>
+        <v>146.8157004124958</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>38.13892827624207</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>127.7255247667961</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>45.71423459433115</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,13 +26023,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>126.0028419604375</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176767</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176767</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="D2" t="n">
         <v>800515.7256176757</v>
       </c>
       <c r="E2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="F2" t="n">
         <v>786967.9346977557</v>
-      </c>
-      <c r="F2" t="n">
-        <v>786967.9346977558</v>
       </c>
       <c r="G2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="H2" t="n">
-        <v>786967.9346977562</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="I2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.9346977553</v>
       </c>
       <c r="J2" t="n">
         <v>786967.9346977558</v>
@@ -26341,19 +26341,19 @@
         <v>786967.9346977557</v>
       </c>
       <c r="L2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="M2" t="n">
         <v>786967.9346977557</v>
-      </c>
-      <c r="M2" t="n">
-        <v>786967.9346977558</v>
       </c>
       <c r="N2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="O2" t="n">
+        <v>786967.9346977553</v>
+      </c>
+      <c r="P2" t="n">
         <v>786967.9346977556</v>
-      </c>
-      <c r="P2" t="n">
-        <v>786967.934697756</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403377</v>
+        <v>192627.1404403378</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819071</v>
+        <v>48293.97000819083</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,40 +26421,40 @@
         <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309561</v>
+        <v>87914.29116309555</v>
       </c>
       <c r="E4" t="n">
+        <v>8727.256391744317</v>
+      </c>
+      <c r="F4" t="n">
         <v>8727.256391744282</v>
       </c>
-      <c r="F4" t="n">
-        <v>8727.256391744284</v>
-      </c>
       <c r="G4" t="n">
-        <v>8727.256391744268</v>
+        <v>8727.256391744266</v>
       </c>
       <c r="H4" t="n">
-        <v>8727.256391744295</v>
+        <v>8727.256391744266</v>
       </c>
       <c r="I4" t="n">
         <v>8727.256391744284</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.256391744268</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="K4" t="n">
+        <v>8727.256391744282</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8727.256391744266</v>
+      </c>
+      <c r="M4" t="n">
+        <v>8727.25639174426</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8727.256391744306</v>
+      </c>
+      <c r="O4" t="n">
         <v>8727.256391744284</v>
-      </c>
-      <c r="L4" t="n">
-        <v>8727.256391744284</v>
-      </c>
-      <c r="M4" t="n">
-        <v>8727.256391744284</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8727.256391744326</v>
-      </c>
-      <c r="O4" t="n">
-        <v>8727.256391744295</v>
       </c>
       <c r="P4" t="n">
         <v>8727.256391744282</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-542695.9673750708</v>
+        <v>-542695.9673750714</v>
       </c>
       <c r="C6" t="n">
-        <v>572055.8162008489</v>
+        <v>572055.8162008487</v>
       </c>
       <c r="D6" t="n">
-        <v>412040.3534528491</v>
+        <v>412040.353452849</v>
       </c>
       <c r="E6" t="n">
-        <v>351705.6866747491</v>
+        <v>351670.9487493137</v>
       </c>
       <c r="F6" t="n">
-        <v>677118.1484821045</v>
+        <v>677083.4105566688</v>
       </c>
       <c r="G6" t="n">
-        <v>677118.1484821044</v>
+        <v>677083.4105566684</v>
       </c>
       <c r="H6" t="n">
-        <v>677118.1484821049</v>
+        <v>677083.4105566689</v>
       </c>
       <c r="I6" t="n">
-        <v>677118.1484821043</v>
+        <v>677083.4105566683</v>
       </c>
       <c r="J6" t="n">
-        <v>509512.9706721219</v>
+        <v>509478.2327466862</v>
       </c>
       <c r="K6" t="n">
-        <v>677118.1484821044</v>
+        <v>677083.4105566688</v>
       </c>
       <c r="L6" t="n">
-        <v>628824.1784739137</v>
+        <v>628789.4405484779</v>
       </c>
       <c r="M6" t="n">
-        <v>592063.1205465926</v>
+        <v>592028.382621157</v>
       </c>
       <c r="N6" t="n">
-        <v>677118.1484821043</v>
+        <v>677083.4105566686</v>
       </c>
       <c r="O6" t="n">
-        <v>677118.1484821043</v>
+        <v>677083.4105566683</v>
       </c>
       <c r="P6" t="n">
-        <v>677118.1484821046</v>
+        <v>677083.4105566688</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26802,10 +26802,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26817,10 +26817,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26972,7 +26972,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.816623302254</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27039,10 +27039,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022542</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>309.7844173726981</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>59.85779754185263</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27552,7 +27552,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>182.2088224992946</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>30.11971182447584</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.146591236757274</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>257.256301749341</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,13 +27625,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>166.6458862679171</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,13 +27780,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551288</v>
@@ -27822,25 +27822,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>115.3258519193757</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>273.4041678245002</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>222.9250743103414</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,10 +27904,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>150.0888768833846</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>94.3554362891108</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29326,7 +29326,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29992,7 +29992,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>-5.115907697472721e-13</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -31838,31 +31838,31 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>433.9798411722591</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>431.3680753731354</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,16 +32072,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,16 +32090,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>277.2922978908106</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153327</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32792,34 +32792,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157994</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32944,34 +32944,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,13 +33014,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
@@ -33032,31 +33032,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>548.8125296967487</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321073</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>587.1221002143859</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>270.948695672725</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,31 +33962,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954392</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>342.4905264542646</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34457,19 +34457,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34781,10 +34781,10 @@
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M3" t="n">
-        <v>553.5225306839445</v>
+        <v>553.5225306839449</v>
       </c>
       <c r="N3" t="n">
         <v>391.197099592874</v>
@@ -35024,13 +35024,13 @@
         <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>584.5244463807084</v>
       </c>
       <c r="O6" t="n">
         <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>443.0068759113666</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
         <v>326.5580100667037</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>291.8458072502408</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,16 +35720,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,16 +35738,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319995</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324661</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36680,22 +36680,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>414.8381222824185</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>444.5258557699415</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>128.8146617507067</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,25 +37616,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121058</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>211.1488143709312</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38105,19 +38105,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
